--- a/3.xlsx
+++ b/3.xlsx
@@ -71,13 +71,13 @@
     <t>Pick up the candle on the dining table and put it on the cabinet at the front right. Catch: candle. Put: cabinet</t>
   </si>
   <si>
-    <t>Catch the vase on the cabinet and put it on the sofa behind. Target:Vase Put:Sofa</t>
+    <t>Catch the vase on the cabinet and put it on the sofa behind. Catch: Vase. Put: Sofa</t>
   </si>
   <si>
-    <t>Catch the cup on the cabinet and put it on the dining table at the back left. Catch:cup  Put:table</t>
+    <t>Catch the cup on the cabinet and put it on the dining table at the back left. Catch: cup.  Put: table</t>
   </si>
   <si>
-    <t>Catch the storage cup on the cabinet and place it on the table at the rear right. Catch:cup  Put:table</t>
+    <t>Catch the storage cup on the cabinet and place it on the table at the rear right. Catch: cup.  Put: table</t>
   </si>
   <si>
     <t>Pick up the hand sanitizer on the table and put it on the toilet on the right. Catch: hand sanitizer. Put: toilet</t>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:AMJ92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F32" sqref="F32:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54166666666667" defaultRowHeight="13.5"/>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="2" spans="1:1024">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>-14.466</v>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>-21.224</v>
@@ -9852,7 +9852,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4">
         <v>-12.944</v>
